--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418763.1352724276</v>
+        <v>465286.8237734673</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12420823.86812475</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043056</v>
+        <v>8036670.410256566</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9156613.068475146</v>
+        <v>8979529.332680598</v>
       </c>
     </row>
     <row r="11">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.40229248514491</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.25341474147876</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>182.55701200868</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>182.5570120086803</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.34798860166246</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R7" t="n">
-        <v>47.96874810115176</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>161.8294550022489</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>153.8072380324134</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>153.8072380324131</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>141.4261508958559</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.261311358952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663199</v>
+        <v>161.829455002249</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>158.8421387710769</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>10.74297899850903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>150.4400599034936</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.64756520950563</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>249.643660434881</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>136.0870494265628</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.50277528694</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07437110675892</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.93382893561936</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>330.6062873367866</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.41670903610059</v>
+        <v>202.4425172951284</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>310.9102804169317</v>
+        <v>236.7410560406724</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.0335056422224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.0572690432717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>167.087102027171</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491558</v>
+        <v>80.50796942908565</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>170.4541150725676</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>48.41158742398211</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>153.5609722970416</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>233.3072717231664</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3003,22 +3003,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>202.2340518623248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>80.19239988545114</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>61.41699360806147</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>28.95911863073287</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.98153210089518</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491558</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>131.0573912450687</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>74.9599735335152</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>180.4082787866284</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>43.75688320100043</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>177.606538748304</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>53.85366032725198</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3720,10 +3720,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>104.5702261485543</v>
       </c>
       <c r="W40" t="n">
-        <v>1.048055842938527</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>294.8783573633373</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>37.28707743115465</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>94.6331809990496</v>
       </c>
       <c r="X43" t="n">
-        <v>11.168189153341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>269.6425323314745</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>289.4771678259123</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>6.380068175847874</v>
+        <v>136.5320587163652</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>523.2361246735302</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>456.735935410456</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487949</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="U2" t="n">
-        <v>371.2627786323101</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="V2" t="n">
-        <v>181.8429936158253</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="W2" t="n">
-        <v>181.8429936158253</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X2" t="n">
-        <v>181.8429936158253</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.55991817042167</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>30.55991817042167</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>30.55991817042167</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>12.36141687342335</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>111.9554248488218</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>247.5338027825022</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>392.9114626603237</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>511.1831359408224</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>586.7735145200476</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>456.735935410456</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033913</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033913</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033913</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9797031869065</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042167</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042167</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.4986403340025</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>185.5624574060956</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>185.5624574060956</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>95.91234996041999</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>241.2900098382414</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>386.6676697160629</v>
       </c>
       <c r="N4" t="n">
-        <v>488.6815517114714</v>
+        <v>532.0453295938844</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>456.735935410456</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681426</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681426</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681426</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681426</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681426</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516578</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.8228542207804</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C5" t="n">
-        <v>388.8228542207804</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D5" t="n">
-        <v>388.8228542207804</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897904</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
         <v>15.0020469733056</v>
@@ -4567,52 +4567,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S5" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T5" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="U5" t="n">
-        <v>388.8228542207804</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="V5" t="n">
-        <v>388.8228542207804</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="W5" t="n">
-        <v>388.8228542207804</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="X5" t="n">
-        <v>388.8228542207804</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.8228542207804</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571.6362168389242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C6" t="n">
-        <v>571.6362168389242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>560.1736020897702</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>254.4015891111996</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
         <v>15.0020469733056</v>
@@ -4649,49 +4649,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S6" t="n">
-        <v>571.6362168389242</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T6" t="n">
-        <v>571.6362168389242</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U6" t="n">
-        <v>571.6362168389242</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="V6" t="n">
-        <v>571.6362168389242</v>
+        <v>344.0797222513584</v>
       </c>
       <c r="W6" t="n">
-        <v>571.6362168389242</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="X6" t="n">
-        <v>571.6362168389242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y6" t="n">
-        <v>571.6362168389242</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330.580817908301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>330.580817908301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>330.580817908301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>330.580817908301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
         <v>15.0020469733056</v>
@@ -4728,49 +4728,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428118</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394162</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M7" t="n">
-        <v>401.713813934073</v>
+        <v>304.4030637430764</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287297</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652798</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652798</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R7" t="n">
-        <v>701.6490677550255</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S7" t="n">
-        <v>701.6490677550255</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="T7" t="n">
-        <v>701.6490677550255</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="U7" t="n">
-        <v>701.6490677550255</v>
+        <v>367.885927951658</v>
       </c>
       <c r="V7" t="n">
-        <v>701.6490677550255</v>
+        <v>178.4661429351731</v>
       </c>
       <c r="W7" t="n">
-        <v>701.6490677550255</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>701.6490677550255</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>512.2292827385407</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E8" t="n">
-        <v>393.841617006275</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201467</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201467</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227597</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843275</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="T9" t="n">
-        <v>722.9192922843275</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="U9" t="n">
-        <v>533.4995072678428</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="V9" t="n">
-        <v>344.079722251358</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="W9" t="n">
-        <v>154.6599372348733</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="X9" t="n">
-        <v>154.6599372348733</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830973</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242523</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.725497984628</v>
       </c>
       <c r="S10" t="n">
-        <v>583.2614020227597</v>
+        <v>746.725497984628</v>
       </c>
       <c r="T10" t="n">
-        <v>393.841617006275</v>
+        <v>557.3057129681431</v>
       </c>
       <c r="U10" t="n">
-        <v>393.841617006275</v>
+        <v>367.8859279516582</v>
       </c>
       <c r="V10" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W10" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.438433460089</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.475916519677</v>
+        <v>1342.443190455021</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.210217912927</v>
+        <v>1342.443190455021</v>
       </c>
       <c r="E11" t="n">
-        <v>903.4219653146824</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F11" t="n">
-        <v>492.4360605250749</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G11" t="n">
-        <v>77.36361037007134</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H11" t="n">
-        <v>77.36361037007134</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794325</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.038273524211</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X11" t="n">
-        <v>2403.038273524211</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.038273524211</v>
+        <v>1711.405707395433</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.0765981364621</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C13" t="n">
-        <v>584.1404152085552</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D13" t="n">
-        <v>434.0237757962194</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E13" t="n">
-        <v>286.1106822138263</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F13" t="n">
-        <v>286.1106822138263</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
-        <v>286.1106822138263</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8934954316841</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.507193008249</v>
+        <v>834.9321317361103</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.517642110232</v>
+        <v>834.9321317361103</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.7250629667018</v>
+        <v>834.9321317361103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1488.368453810659</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410103</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.784676410103</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>231.8553933260938</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C16" t="n">
-        <v>231.8553933260938</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D16" t="n">
-        <v>81.7387539137581</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E16" t="n">
-        <v>81.7387539137581</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F16" t="n">
-        <v>81.7387539137581</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>378.6078255973312</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>157.8152464538011</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.038871968308</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C17" t="n">
-        <v>869.0763550278964</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D17" t="n">
-        <v>510.8106564211459</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E17" t="n">
-        <v>510.8106564211459</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>510.8106564211459</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>95.73820626614236</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>95.73820626614236</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5530,37 +5530,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269321</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008242</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.63871203243</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,7 +5609,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696239</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8634178877041</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.200456328342</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.200456328342</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D20" t="n">
-        <v>1063.934757721591</v>
+        <v>691.4327488694908</v>
       </c>
       <c r="E20" t="n">
-        <v>678.1465051233472</v>
+        <v>305.6444962712465</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
         <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392464</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>812.5736815556431</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>584.5841306576258</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8634178877041</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1594.601034732593</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C23" t="n">
-        <v>1225.638517792182</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D23" t="n">
-        <v>867.3728191854311</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>481.5845665871869</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
         <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.800296392464</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1556.870499972636</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>1302.186011766749</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1808.800296392464</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
@@ -6229,7 +6229,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2375.843448093195</v>
       </c>
       <c r="X26" t="n">
-        <v>1808.800296392464</v>
+        <v>2002.377689832115</v>
       </c>
       <c r="Y26" t="n">
-        <v>1808.800296392464</v>
+        <v>1612.238357856303</v>
       </c>
     </row>
     <row r="27">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1811.579746109088</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="C29" t="n">
-        <v>1442.617229168676</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.953318337195</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410101</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2961.784676410101</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2588.318918149022</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y29" t="n">
-        <v>2198.17958617321</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>679.1346335501037</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
         <v>234.2149530574644</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1309.565228421891</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V31" t="n">
-        <v>1309.565228421891</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W31" t="n">
-        <v>1309.565228421891</v>
+        <v>1110.818884708357</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.575677523874</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y31" t="n">
-        <v>860.7830983803434</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1681.836054204827</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>1312.873537264415</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>954.6078386576646</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>954.6078386576646</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>543.6219338680571</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>128.5494837130536</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.975386180638</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1681.836054204827</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1241.044369546818</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>986.3598813409312</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>696.9427113039706</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X34" t="n">
-        <v>468.9531604059532</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.1605812624231</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1311.909787855437</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C35" t="n">
-        <v>942.9472709150252</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D35" t="n">
-        <v>584.6815723082748</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E35" t="n">
-        <v>198.8933197100305</v>
+        <v>968.2876163601431</v>
       </c>
       <c r="F35" t="n">
-        <v>198.8933197100305</v>
+        <v>557.3017115705356</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>142.2292614155321</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.509627919559</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>701.1808689801002</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>532.2446860521933</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>382.1280466398575</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1331.611463851887</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1331.611463851887</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.611463851887</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.62191295387</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.8293338103399</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C38" t="n">
-        <v>921.7704558796252</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D38" t="n">
-        <v>921.7704558796252</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E38" t="n">
-        <v>535.9822032813809</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F38" t="n">
-        <v>535.9822032813809</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>120.9097531263773</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.2513404403937</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7368,16 +7368,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W40" t="n">
-        <v>1160.681935312181</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X40" t="n">
-        <v>932.6923844141636</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.8998052706335</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1774.969111598456</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1406.006594658045</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1047.740896051294</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>661.9526434530499</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>661.9526434530499</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2535.034709923658</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X41" t="n">
-        <v>2161.568951662578</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y41" t="n">
-        <v>2161.568951662578</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7551,34 +7551,34 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1383.507193008249</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W43" t="n">
-        <v>1094.090022971288</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1208.812782134349</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>839.8502651939375</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>481.5845665871869</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X44" t="n">
-        <v>1985.551954174283</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y44" t="n">
-        <v>1595.412622198471</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="45">
@@ -7718,19 +7718,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.8928126690276</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C46" t="n">
-        <v>72.95662974112065</v>
+        <v>352.3363804351475</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X46" t="n">
-        <v>644.3338566427974</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.5412774992673</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>144.4438298277634</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>141.0220468163143</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>133.2236354305728</v>
       </c>
       <c r="O4" t="n">
-        <v>145.8220995101052</v>
+        <v>63.83383738764589</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.56275186471095</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>171.4142040457085</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>145.2551346857773</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457083</v>
+        <v>82.97369176944369</v>
       </c>
       <c r="N10" t="n">
-        <v>75.41988959484648</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>138.9393975111064</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>32.76764826519968</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>67.23820498408318</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>104.3348437827357</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>180.9061373814264</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0654014799591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.242787970256</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21.88218769163143</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681299</v>
+        <v>48.87899782081604</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5785654404585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>6.431128493126664</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>61.07783192084744</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378014</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>139.6768772478825</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>71.73853226338625</v>
       </c>
     </row>
     <row r="5">
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>199.3733580635817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -22840,7 +22840,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>203.6809266473733</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>136.0970769629763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452526</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,10 +22953,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -22965,7 +22965,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.85362150953864</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T7" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343421</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>4.968575157639748</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>97.3620225326172</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>8.344093795093698</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.42138441835235</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23202,7 +23202,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>44.95080079324748</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378003</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713022</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750814</v>
+        <v>90.30818832157902</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027094</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>223.0882313011849</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.83395077441692</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.39192027844371</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>23.70485520033246</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>115.6292313361265</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>233.6440512519063</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.32920489499735</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9514371522693</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>12.64310083730659</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>18.63468138062638</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.1679443159942</v>
+        <v>16.14213605696639</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>95.96576532477974</v>
+        <v>170.134989701039</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.55114770987237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.6765726202088</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>198.1857897438366</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270134</v>
+        <v>139.0409798470835</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>194.8187766984399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>300.8293812934309</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.142136056966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370402</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.172869366439</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>121.3757698975166</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>83.97778634328807</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>206.3305984511398</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>233.190770779259</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>298.793139839402</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>94.04427615813304</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270134</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>279.8643344083848</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>219.6477908538052</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>105.8035594189845</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>181.9527721880367</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>229.2695069934074</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>240.7541040600685</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>147.5674171752737</v>
       </c>
       <c r="W40" t="n">
-        <v>285.4749424936525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>116.0433682901161</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>348.9508612248989</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.8898173375414</v>
       </c>
       <c r="X43" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>113.0913093320061</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>80.25393285255672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>142.2354048423645</v>
+        <v>12.08341430184714</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>479623.1262335383</v>
+        <v>445798.4068509178</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>479623.1262335382</v>
+        <v>479623.1262335384</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>479623.1262335381</v>
+        <v>479623.1262335383</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895741.616799579</v>
+        <v>813588.2900119936</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895741.616799579</v>
+        <v>813588.2900119936</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.6167995787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.616799579</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895741.6167995789</v>
+        <v>895741.616799579</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.616799579</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895741.6167995788</v>
+        <v>895741.6167995791</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967403</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967404</v>
+        <v>162397.4547967405</v>
       </c>
       <c r="D2" t="n">
-        <v>162397.4547967403</v>
+        <v>162397.4547967405</v>
       </c>
       <c r="E2" t="n">
+        <v>275374.4674448776</v>
+      </c>
+      <c r="F2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="G2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="J2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="H2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="J2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="K2" t="n">
-        <v>306897.3890738286</v>
-      </c>
       <c r="L2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="M2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="N2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>46281.9524022889</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>445061.6638164771</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>173363.8810341905</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>38421.40650613399</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10469.59282546271</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>112904.1760744625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45920.21121431057</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10637.53658444008</v>
+        <v>9953.302973821774</v>
       </c>
       <c r="C4" t="n">
         <v>10637.53658444008</v>
       </c>
       <c r="D4" t="n">
-        <v>10637.53658444007</v>
+        <v>10637.53658444008</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091475</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="G4" t="n">
         <v>9770.403102091475</v>
@@ -26456,7 +26456,7 @@
         <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
         <v>9770.403102091475</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>53719.11977902089</v>
+      </c>
+      <c r="C5" t="n">
         <v>56985.80041161358</v>
       </c>
-      <c r="C5" t="n">
-        <v>56985.80041161357</v>
-      </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
+        <v>59310.17243984474</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26499,19 +26499,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-508086.7481447248</v>
+        <v>-456628.5160946682</v>
       </c>
       <c r="C6" t="n">
-        <v>83270.15437612079</v>
+        <v>47341.7690559413</v>
       </c>
       <c r="D6" t="n">
-        <v>83270.15437612073</v>
+        <v>93623.72145823023</v>
       </c>
       <c r="E6" t="n">
-        <v>-407790.1875213848</v>
+        <v>-248103.9810742237</v>
       </c>
       <c r="F6" t="n">
-        <v>219344.456112283</v>
+        <v>196957.6827422536</v>
       </c>
       <c r="G6" t="n">
-        <v>219344.4561122828</v>
+        <v>49109.14544634738</v>
       </c>
       <c r="H6" t="n">
-        <v>219344.4561122828</v>
+        <v>222473.0264805377</v>
       </c>
       <c r="I6" t="n">
-        <v>219344.4561122829</v>
+        <v>222473.0264805379</v>
       </c>
       <c r="J6" t="n">
-        <v>170279.5113837383</v>
+        <v>184051.6199744038</v>
       </c>
       <c r="K6" t="n">
-        <v>219344.4561122828</v>
+        <v>212003.4336550751</v>
       </c>
       <c r="L6" t="n">
-        <v>219344.4561122828</v>
+        <v>222473.026480538</v>
       </c>
       <c r="M6" t="n">
-        <v>58888.0142444055</v>
+        <v>109568.8504060754</v>
       </c>
       <c r="N6" t="n">
-        <v>219344.4561122828</v>
+        <v>222473.0264805378</v>
       </c>
       <c r="O6" t="n">
-        <v>219344.456112283</v>
+        <v>176552.8152662273</v>
       </c>
       <c r="P6" t="n">
-        <v>219344.4561122828</v>
+        <v>222473.0264805378</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.39307775568386</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>385.5949512046346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>40.67946607761147</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>453.059244933719</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40.67946607761147</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>453.0592449337188</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40.67946607761147</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>453.059244933719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>138.461365425194</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31360,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31609,34 +31609,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31697,25 +31697,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>0.6199264508350188</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>85.01480835689223</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1624568175057</v>
+        <v>55.8981361221715</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068241</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="N7" t="n">
-        <v>187.52558716632</v>
+        <v>168.9203199809856</v>
       </c>
       <c r="O7" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005527</v>
       </c>
       <c r="N10" t="n">
-        <v>99.08507489005474</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>474.3640795072295</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
